--- a/Presupuesto1.xlsx
+++ b/Presupuesto1.xlsx
@@ -14,7 +14,745 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="247">
+  <si>
+    <t>PRESTAMOS CONVENIO</t>
+  </si>
+  <si>
+    <t>1005364848</t>
+  </si>
+  <si>
+    <t>PEN</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT]CURCOMMITMENT]TOTCOMMITMENTBL]CURCOMMITMENTBL]AVLACCOUNT]AVLACCOUNTBL]CURACCOUNT]ACCPRINCIPALINT]DUEADMINFEE]DUECLINSURANCE]DUEPRINCIPALINT]DUEACCOUNT</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT-20200430]CURCOMMITMENT-20200430]TOTCOMMITMENTBL-20200430]CURCOMMITMENTBL-20200430]AVLACCOUNT-20200430]AVLACCOUNTBL-20200430]CURACCOUNT-20200430]ACCPRINCIPALINT-20200430]DUEADMINFEE-20200430]DUECLINSURANCE-20200430]DUEPRINCIPALINT-20200430]DUEACCOUNT-20200430</t>
+  </si>
+  <si>
+    <t>]]]]]]]]]]]</t>
+  </si>
+  <si>
+    <t>-31500]-63000]]-63000]-63000]-63000]-19283.95]-145.61]-12]-67.9]-909.46]-2035.54</t>
+  </si>
+  <si>
+    <t>]63000]31500]63000]63000]63000]]]6]33.95]454.73]1017.77</t>
+  </si>
+  <si>
+    <t>PE0010013</t>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>20200430</t>
+  </si>
+  <si>
+    <t>3726407</t>
+  </si>
+  <si>
+    <t>-20796.4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>14:38:04 30 APR 2020</t>
+  </si>
+  <si>
+    <t>AC.1.TR.PEN.3133.1001.PE.3M.10..1001......PE0010013</t>
+  </si>
+  <si>
+    <t>1006524369</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT]CURCOMMITMENT]TOTCOMMITMENTBL]CURCOMMITMENTBL]AVLACCOUNT]AVLACCOUNTBL]CURACCOUNT]ACCPRINCIPALINT]DUEACCOUNT]DUEADMINFEE]DUECLINSURANCE]DUEPRINCIPALINT</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT-20200430]CURCOMMITMENT-20200430]TOTCOMMITMENTBL-20200430]CURCOMMITMENTBL-20200430]AVLACCOUNT-20200430]AVLACCOUNTBL-20200430]CURACCOUNT-20200430]ACCPRINCIPALINT-20200430]DUEACCOUNT-20200430]DUEADMINFEE-20200430]DUECLINSURANCE-20200430]DUEPRINCIPALINT-20200430</t>
+  </si>
+  <si>
+    <t>-46000]-92000]]-92000]-92000]-92000]-19559.21]-128.41]-5092.94]-18]-74.64]-1269.02</t>
+  </si>
+  <si>
+    <t>]92000]46000]92000]92000]92000]]]2546.47]9]37.32]634.51</t>
+  </si>
+  <si>
+    <t>PE0010080</t>
+  </si>
+  <si>
+    <t>3616171</t>
+  </si>
+  <si>
+    <t>-22786.51</t>
+  </si>
+  <si>
+    <t>14:39:01 30 APR 2020</t>
+  </si>
+  <si>
+    <t>AC.1.TR.PEN.3133.1001.PE.3M.10..1001......PE0010080</t>
+  </si>
+  <si>
+    <t>1006205603</t>
+  </si>
+  <si>
+    <t>-43728.54]-87457.08]]-87457.08]-87457.08]-87457.08]-28746.78]-202.95]-30]-266.42]-3308.78]-6716.22</t>
+  </si>
+  <si>
+    <t>]87457.08]43728.54]87457.08]87457.08]87457.08]]]15]133.21]1654.39]3358.11</t>
+  </si>
+  <si>
+    <t>PE0010069</t>
+  </si>
+  <si>
+    <t>3556518</t>
+  </si>
+  <si>
+    <t>-33907.49</t>
+  </si>
+  <si>
+    <t>14:38:25 30 APR 2020</t>
+  </si>
+  <si>
+    <t>AC.1.TR.PEN.3133.1001.PE.3M.10..1001......PE0010069</t>
+  </si>
+  <si>
+    <t>1005704398</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT]CURCOMMITMENT]TOTCOMMITMENTBL]CURCOMMITMENTBL]AVLACCOUNT]AVLACCOUNTBL]CURACCOUNT]ACCPRINCIPALINT</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT-20200430]CURCOMMITMENT-20200430]TOTCOMMITMENTBL-20200430]CURCOMMITMENTBL-20200430]AVLACCOUNT-20200430]AVLACCOUNTBL-20200430]CURACCOUNT-20200430]ACCPRINCIPALINT-20200430</t>
+  </si>
+  <si>
+    <t>]]]]]]]</t>
+  </si>
+  <si>
+    <t>-63519.9]-127039.8]]-127039.8]-127039.8]-127039.8]-63519.9]-668.52</t>
+  </si>
+  <si>
+    <t>]127039.8]63519.9]127039.8]127039.8]127039.8]]</t>
+  </si>
+  <si>
+    <t>PE0010027</t>
+  </si>
+  <si>
+    <t>1787573</t>
+  </si>
+  <si>
+    <t>-63519.9</t>
+  </si>
+  <si>
+    <t>11:20:18 30 APR 2020</t>
+  </si>
+  <si>
+    <t>AC.1.TR.PEN.3133.1001.PE.3M.10..1001......PE0010027</t>
+  </si>
+  <si>
+    <t>1006443989</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT]CURCOMMITMENT]TOTCOMMITMENTBL]CURCOMMITMENTBL]AVLACCOUNT]AVLACCOUNTBL]CURACCOUNT]ACCPRINCIPALINT]AASUSPENSE]UNCACCOUNT</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT-20200430]CURCOMMITMENT-20200430]TOTCOMMITMENTBL-20200430]CURCOMMITMENTBL-20200430]AVLACCOUNT-20200430]AVLACCOUNTBL-20200430]CURACCOUNT-20200430]ACCPRINCIPALINT-20200430]AASUSPENSE-20200430]UNCACCOUNT-20200430</t>
+  </si>
+  <si>
+    <t>]]]]]]]]]</t>
+  </si>
+  <si>
+    <t>-31600]-63200]]-63200]-63200]-63200]-3471.41]-22.79]-2.19]</t>
+  </si>
+  <si>
+    <t>]63200]31600]63200]63200]63200]]]2.19]2.19</t>
+  </si>
+  <si>
+    <t>PE0010078</t>
+  </si>
+  <si>
+    <t>3444667</t>
+  </si>
+  <si>
+    <t>-3469.22</t>
+  </si>
+  <si>
+    <t>13:46:02 30 APR 2020</t>
+  </si>
+  <si>
+    <t>AC.1.TR.PEN.3133.1001.PE.3M.10..1001......PE0010078</t>
+  </si>
+  <si>
+    <t>1005403967</t>
+  </si>
+  <si>
+    <t>-14890]-29780]]-29780]-29780]-29780]-3048.96]-10]-30]-35.84]-682.3]-2872.56</t>
+  </si>
+  <si>
+    <t>]29780]14890]29780]29780]29780]]]15]17.92]341.15]1436.28</t>
+  </si>
+  <si>
+    <t>PE0010016</t>
+  </si>
+  <si>
+    <t>3459815</t>
+  </si>
+  <si>
+    <t>-4859.31</t>
+  </si>
+  <si>
+    <t>14:38:12 30 APR 2020</t>
+  </si>
+  <si>
+    <t>AC.1.TR.PEN.3133.1001.PE.3M.726..1001......PE0010016</t>
+  </si>
+  <si>
+    <t>1006283957</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT]CURCOMMITMENT]TOTCOMMITMENTBL]CURCOMMITMENTBL]AVLACCOUNT]AVLACCOUNTBL]CURACCOUNT]DUEACCOUNT]DUECLINSURANCE]DUEPRINCIPALINT</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT-20200430]CURCOMMITMENT-20200430]TOTCOMMITMENTBL-20200430]CURCOMMITMENTBL-20200430]AVLACCOUNT-20200430]AVLACCOUNTBL-20200430]CURACCOUNT-20200430]DUEACCOUNT-20200430]DUECLINSURANCE-20200430]DUEPRINCIPALINT-20200430</t>
+  </si>
+  <si>
+    <t>-14500]-14500]]-14500]-14500]-14500]-14500]-6504.9]-18.78]-355.44</t>
+  </si>
+  <si>
+    <t>]14500]14500]14500]14500]14500]14500]]]</t>
+  </si>
+  <si>
+    <t>PE0010072</t>
+  </si>
+  <si>
+    <t>3322238</t>
+  </si>
+  <si>
+    <t>-6879.12</t>
+  </si>
+  <si>
+    <t>14:45:43 30 APR 2020</t>
+  </si>
+  <si>
+    <t>AC.1.TR.PEN.3161.1001.PE.15D.10..1001......PE0010072</t>
+  </si>
+  <si>
+    <t>PRESTAMO DE CONSUMO</t>
+  </si>
+  <si>
+    <t>1005564057</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT]CURCOMMITMENT]TOTCOMMITMENTBL]CURCOMMITMENTBL]AVLACCOUNT]AVLACCOUNTBL]CURACCOUNT]ACCPRINCIPALINT]DUEPENALTY3D]DUEPRINCIPALINT]DUEACCOUNT</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT-20200430]CURCOMMITMENT-20200430]TOTCOMMITMENTBL-20200430]CURCOMMITMENTBL-20200430]AVLACCOUNT-20200430]AVLACCOUNTBL-20200430]CURACCOUNT-20200430]ACCPRINCIPALINT-20200430]DUEPENALTY3D-20200430]DUEPRINCIPALINT-20200430]DUEACCOUNT-20200430</t>
+  </si>
+  <si>
+    <t>]]]]]]]]]]</t>
+  </si>
+  <si>
+    <t>-23460]-46920]]-46920]-46920]-46920]-4381.54]-27.09]-220]-414.28]-3528.78</t>
+  </si>
+  <si>
+    <t>]46920]23460]46920]46920]46920]]]110]207.14]1764.39</t>
+  </si>
+  <si>
+    <t>PE0010023</t>
+  </si>
+  <si>
+    <t>200711</t>
+  </si>
+  <si>
+    <t>-6463.07</t>
+  </si>
+  <si>
+    <t>06:08:44 30 APR 2020</t>
+  </si>
+  <si>
+    <t>AC.1.TR.PEN.3121.1001.PE.3M.10..1001......PE0010023</t>
+  </si>
+  <si>
+    <t>1005684297</t>
+  </si>
+  <si>
+    <t>-14229]-28458]]-28458]-28458]-28458]-3390.26]-78.9</t>
+  </si>
+  <si>
+    <t>]28458]14229]28458]28458]28458]]</t>
+  </si>
+  <si>
+    <t>975705</t>
+  </si>
+  <si>
+    <t>-3390.26</t>
+  </si>
+  <si>
+    <t>04:22:55 21 MAY 2020</t>
+  </si>
+  <si>
+    <t>AC.1.TR.PEN.3121.1001.PE.3M.10..1001......PE0010027</t>
+  </si>
+  <si>
+    <t>1006403987</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT]CURCOMMITMENT]TOTCOMMITMENTBL]CURCOMMITMENTBL]AVLACCOUNT]AVLACCOUNTBL]CURACCOUNT]DUEACCOUNT]DUEPRINCIPALINT]DUEPENALTY3D</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT-20200430]CURCOMMITMENT-20200430]TOTCOMMITMENTBL-20200430]CURCOMMITMENTBL-20200430]AVLACCOUNT-20200430]AVLACCOUNTBL-20200430]CURACCOUNT-20200430]DUEACCOUNT-20200430]DUEPRINCIPALINT-20200430]DUEPENALTY3D-20200430</t>
+  </si>
+  <si>
+    <t>-10200]-10200]]-10200]-10200]-10200]-10200]-2090.72]-48.74]-280</t>
+  </si>
+  <si>
+    <t>]10200]10200]10200]10200]10200]10200]1045.36]24.37]140</t>
+  </si>
+  <si>
+    <t>PE0010077</t>
+  </si>
+  <si>
+    <t>3623781</t>
+  </si>
+  <si>
+    <t>-1209.73</t>
+  </si>
+  <si>
+    <t>07:05:28 30 APR 2020</t>
+  </si>
+  <si>
+    <t>AC.1.TR.PEN.3124.1001.PE.15D.10..1001......PE0010077</t>
+  </si>
+  <si>
+    <t>1005684637</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT]CURCOMMITMENT]TOTCOMMITMENTBL]CURCOMMITMENTBL]AVLACCOUNT]AVLACCOUNTBL]CURACCOUNT]ACCPRINCIPALINT]DUEACCOUNT]DUEPENALTY3D]DUEPRINCIPALINT</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT-20200430]CURCOMMITMENT-20200430]TOTCOMMITMENTBL-20200430]CURCOMMITMENTBL-20200430]AVLACCOUNT-20200430]AVLACCOUNTBL-20200430]CURACCOUNT-20200430]ACCPRINCIPALINT-20200430]DUEACCOUNT-20200430]DUEPENALTY3D-20200430]DUEPRINCIPALINT-20200430</t>
+  </si>
+  <si>
+    <t>-2101.29]-4202.58]]-4202.58]-4202.58]-4202.58]-333.28]-5.76]-820.9]-487.84]-375</t>
+  </si>
+  <si>
+    <t>]4202.58]2101.29]4202.58]4202.58]4202.58]]]410.45]243.92]187.5</t>
+  </si>
+  <si>
+    <t>104301</t>
+  </si>
+  <si>
+    <t>-1175.15</t>
+  </si>
+  <si>
+    <t>06:17:23 30 APR 2020</t>
+  </si>
+  <si>
+    <t>AC.1.TR.PEN.3124.1001.PE.3M.10..1001......PE0010027</t>
+  </si>
+  <si>
+    <t>1005964462</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT]CURCOMMITMENT]TOTCOMMITMENTBL]CURCOMMITMENTBL]AVLACCOUNT]AVLACCOUNTBL]CURACCOUNT]ACCPRINCIPALINT]DUEPRINCIPALINT]DUEACCOUNT</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT-20200430]CURCOMMITMENT-20200430]TOTCOMMITMENTBL-20200430]CURCOMMITMENTBL-20200430]AVLACCOUNT-20200430]AVLACCOUNTBL-20200430]CURACCOUNT-20200430]ACCPRINCIPALINT-20200430]DUEPRINCIPALINT-20200430]DUEACCOUNT-20200430</t>
+  </si>
+  <si>
+    <t>-9450]-18900]]-18900]-18900]-18900]-1566.72]-14.47]-269.88]-813.32</t>
+  </si>
+  <si>
+    <t>]18900]9450]18900]18900]18900]]]134.94]406.66</t>
+  </si>
+  <si>
+    <t>PE0010048</t>
+  </si>
+  <si>
+    <t>2286221</t>
+  </si>
+  <si>
+    <t>-2108.32</t>
+  </si>
+  <si>
+    <t>06:13:19 30 APR 2020</t>
+  </si>
+  <si>
+    <t>AC.1.TR.PEN.3125.1001.PE.3M.10..1001......PE0010048</t>
+  </si>
+  <si>
+    <t>1005727355</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT]CURCOMMITMENT]TOTCOMMITMENTBL]CURCOMMITMENTBL]AVLACCOUNT]AVLACCOUNTBL]CURACCOUNT]ACCPRINCIPALINT]DUECLINSURANCE]DUEPRINCIPALINT]DUEPENALTY3D]DUEACCOUNT</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT-20200430]CURCOMMITMENT-20200430]TOTCOMMITMENTBL-20200430]CURCOMMITMENTBL-20200430]AVLACCOUNT-20200430]AVLACCOUNTBL-20200430]CURACCOUNT-20200430]ACCPRINCIPALINT-20200430]DUECLINSURANCE-20200430]DUEPRINCIPALINT-20200430]DUEPENALTY3D-20200430]DUEACCOUNT-20200430</t>
+  </si>
+  <si>
+    <t>-2100]-4200]]-4200]-4200]-4200]-588.83]-12.38]-78.76]-94.6]-90]-422.96</t>
+  </si>
+  <si>
+    <t>]4200]2100]4200]4200]4200]]]39.38]47.3]45]211.48</t>
+  </si>
+  <si>
+    <t>PE0010028</t>
+  </si>
+  <si>
+    <t>3848144</t>
+  </si>
+  <si>
+    <t>-931.99</t>
+  </si>
+  <si>
+    <t>06:24:07 30 APR 2020</t>
+  </si>
+  <si>
+    <t>AC.1.TR.PEN.3125.1001.PE.3M.10..1001......PE0010028</t>
+  </si>
+  <si>
+    <t>1006130182</t>
+  </si>
+  <si>
+    <t>-4900]-9800]]-9800]-9800]-9800]-2761.9]-117.93</t>
+  </si>
+  <si>
+    <t>]9800]4900]9800]9800]9800]]</t>
+  </si>
+  <si>
+    <t>PE0010064</t>
+  </si>
+  <si>
+    <t>3958799</t>
+  </si>
+  <si>
+    <t>-2761.9</t>
+  </si>
+  <si>
+    <t>04:24:54 21 MAY 2020</t>
+  </si>
+  <si>
+    <t>AC.1.TR.PEN.3124.1001.PE.3M.10..1001......PE0010064</t>
+  </si>
+  <si>
+    <t>1006130198</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT]CURCOMMITMENT]TOTCOMMITMENTBL]CURCOMMITMENTBL]AVLACCOUNT]AVLACCOUNTBL]CURACCOUNT]ACCPRINCIPALINT]DUEPRINSURANCE]DUECLINSURANCE]DUEACCOUNT]DUEPRINCIPALINT</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT-20200430]CURCOMMITMENT-20200430]TOTCOMMITMENTBL-20200430]CURCOMMITMENTBL-20200430]AVLACCOUNT-20200430]AVLACCOUNTBL-20200430]CURACCOUNT-20200430]ACCPRINCIPALINT-20200430]DUEPRINSURANCE-20200430]DUECLINSURANCE-20200430]DUEACCOUNT-20200430]DUEPRINCIPALINT-20200430</t>
+  </si>
+  <si>
+    <t>-2000]-4000]]-4000]-4000]-4000]-897.03]-11.9]-19.7]-40]-525.9]-475.46</t>
+  </si>
+  <si>
+    <t>]4000]2000]4000]4000]4000]]]9.85]20]262.95]237.73</t>
+  </si>
+  <si>
+    <t>3957216</t>
+  </si>
+  <si>
+    <t>-1427.56</t>
+  </si>
+  <si>
+    <t>06:13:48 30 APR 2020</t>
+  </si>
+  <si>
+    <t>AC.1.TR.PEN.3126.1001.PE.3M.544..1001......PE0010064</t>
+  </si>
+  <si>
+    <t>CUENTAS DE AHORRO</t>
+  </si>
+  <si>
+    <t>1001936178</t>
+  </si>
+  <si>
+    <t>CREDIT]ACCCRINTEREST</t>
+  </si>
+  <si>
+    <t>CREDIT-20200430]ACCCRINTEREST-20200430</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>0.12]0.19</t>
+  </si>
+  <si>
+    <t>338375</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>11:52:55 30 APR 2020</t>
+  </si>
+  <si>
+    <t>AC.1.TR.PEN.6001.1001.PE..10..1001......PE0010027</t>
+  </si>
+  <si>
+    <t>1001936189</t>
+  </si>
+  <si>
+    <t>999.97]0.12</t>
+  </si>
+  <si>
+    <t>2938883</t>
+  </si>
+  <si>
+    <t>999.97</t>
+  </si>
+  <si>
+    <t>11:52:57 30 APR 2020</t>
+  </si>
+  <si>
+    <t>1001936197</t>
+  </si>
+  <si>
+    <t>3621184</t>
+  </si>
+  <si>
+    <t>11:52:58 30 APR 2020</t>
+  </si>
+  <si>
+    <t>1001936208</t>
+  </si>
+  <si>
+    <t>45.37]0.01</t>
+  </si>
+  <si>
+    <t>2624644</t>
+  </si>
+  <si>
+    <t>45.37</t>
+  </si>
+  <si>
+    <t>11:53:00 30 APR 2020</t>
+  </si>
+  <si>
+    <t>1001936219</t>
+  </si>
+  <si>
+    <t>CREDIT</t>
+  </si>
+  <si>
+    <t>CREDIT-20200430</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>3619876</t>
+  </si>
+  <si>
+    <t>11:53:01 30 APR 2020</t>
+  </si>
+  <si>
+    <t>1001936235</t>
+  </si>
+  <si>
+    <t>3010034</t>
+  </si>
+  <si>
+    <t>11:53:02 30 APR 2020</t>
+  </si>
+  <si>
+    <t>CTS</t>
+  </si>
+  <si>
+    <t>1001560774</t>
+  </si>
+  <si>
+    <t>2.78]0.01</t>
+  </si>
+  <si>
+    <t>PE0010001</t>
+  </si>
+  <si>
+    <t>4954</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>16:47:13 30 APR 2020</t>
+  </si>
+  <si>
+    <t>AC.1.TR.PEN.6015.1001.PE..10..1001......PE0010001</t>
+  </si>
+  <si>
+    <t>1001560782</t>
+  </si>
+  <si>
+    <t>72.7]0.37</t>
+  </si>
+  <si>
+    <t>552659</t>
+  </si>
+  <si>
+    <t>72.7</t>
+  </si>
+  <si>
+    <t>16:47:14 30 APR 2020</t>
+  </si>
+  <si>
+    <t>AC.1.TR.PEN.6015.1002.PE..10..1001......PE0010001</t>
+  </si>
+  <si>
+    <t>1001560798</t>
+  </si>
+  <si>
+    <t>1657.07]8.43</t>
+  </si>
+  <si>
+    <t>4483</t>
+  </si>
+  <si>
+    <t>1657.07</t>
+  </si>
+  <si>
+    <t>16:47:15 30 APR 2020</t>
+  </si>
+  <si>
+    <t>1001560804</t>
+  </si>
+  <si>
+    <t>2.29]1.37</t>
+  </si>
+  <si>
+    <t>3071</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>16:47:16 30 APR 2020</t>
+  </si>
+  <si>
+    <t>DEPOSITOS A PLAZO</t>
+  </si>
+  <si>
+    <t>1005033957</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT]EXPACCOUNT]TOTCOMMITMENTBL]EXPACCOUNTBL]CURACCOUNT</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT-20200430]EXPACCOUNT-20200430]TOTCOMMITMENTBL-20200430]EXPACCOUNTBL-20200430]CURACCOUNT-20200430</t>
+  </si>
+  <si>
+    <t>]]]]</t>
+  </si>
+  <si>
+    <t>]-14184.41]-14184.41]-14184.41]</t>
+  </si>
+  <si>
+    <t>14184.41]14184.41]]14184.41]14184.41</t>
+  </si>
+  <si>
+    <t>1908616</t>
+  </si>
+  <si>
+    <t>14184.41</t>
+  </si>
+  <si>
+    <t>21:17:48 30 APR 2020</t>
+  </si>
+  <si>
+    <t>AC.1.TR.PEN.6641.1001.PE.3Y.10..1001......PE0010028</t>
+  </si>
+  <si>
+    <t>1005033965</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT]EXPACCOUNT]TOTCOMMITMENTBL]EXPACCOUNTBL]CURACCOUNT]PAYDEPOSITINT</t>
+  </si>
+  <si>
+    <t>TOTCOMMITMENT-20200430]EXPACCOUNT-20200430]TOTCOMMITMENTBL-20200430]EXPACCOUNTBL-20200430]CURACCOUNT-20200430]PAYDEPOSITINT-20200430</t>
+  </si>
+  <si>
+    <t>]]]]]</t>
+  </si>
+  <si>
+    <t>]-144500]-144500]-144500]]</t>
+  </si>
+  <si>
+    <t>144500]144500]]144500]144500]1234.94</t>
+  </si>
+  <si>
+    <t>1877709</t>
+  </si>
+  <si>
+    <t>145734.94</t>
+  </si>
+  <si>
+    <t>21:43:09 30 APR 2020</t>
+  </si>
+  <si>
+    <t>AC.1.TR.PEN.6641.1001.PE.3Y.180..1001......PE0010028</t>
+  </si>
+  <si>
+    <t>1005033973</t>
+  </si>
+  <si>
+    <t>]-47540.8]-47540.8]-47540.8]]</t>
+  </si>
+  <si>
+    <t>47540.8]47540.8]]47540.8]47540.8]406.3</t>
+  </si>
+  <si>
+    <t>228723</t>
+  </si>
+  <si>
+    <t>47947.1</t>
+  </si>
+  <si>
+    <t>21:42:29 30 APR 2020</t>
+  </si>
+  <si>
+    <t>1005033981</t>
+  </si>
+  <si>
+    <t>]-7041.48]-7041.48]-7041.48]</t>
+  </si>
+  <si>
+    <t>7041.48]7041.48]]7041.48]7041.48</t>
+  </si>
+  <si>
+    <t>1896034</t>
+  </si>
+  <si>
+    <t>7041.48</t>
+  </si>
+  <si>
+    <t>21:24:11 30 APR 2020</t>
+  </si>
+  <si>
+    <t>AC.1.TR.PEN.6643.1001.PE.3Y.10..1001......PE0010028</t>
+  </si>
+  <si>
+    <t>1005033997</t>
+  </si>
+  <si>
+    <t>]-105873.94]-105873.94]-105873.94]</t>
+  </si>
+  <si>
+    <t>105873.94]105873.94]]105873.94]105873.94</t>
+  </si>
+  <si>
+    <t>2071481</t>
+  </si>
+  <si>
+    <t>105873.94</t>
+  </si>
+  <si>
+    <t>21:24:20 30 APR 2020</t>
+  </si>
   <si>
     <t>Total:</t>
   </si>
@@ -348,14 +1086,4122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>54</v>
+      </c>
+      <c r="B83" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>55</v>
+      </c>
+      <c r="B86" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>58</v>
+      </c>
+      <c r="B93" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>61</v>
+      </c>
+      <c r="B99" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>62</v>
+      </c>
+      <c r="B101" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>63</v>
+      </c>
+      <c r="B103" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>64</v>
+      </c>
+      <c r="B104" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>65</v>
+      </c>
+      <c r="B105" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>66</v>
+      </c>
+      <c r="B107" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>67</v>
+      </c>
+      <c r="B108" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>49</v>
+      </c>
+      <c r="B109" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>68</v>
+      </c>
+      <c r="B110" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>69</v>
+      </c>
+      <c r="B111" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>70</v>
+      </c>
+      <c r="B112" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>71</v>
+      </c>
+      <c r="B116" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>72</v>
+      </c>
+      <c r="B117" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>72</v>
+      </c>
+      <c r="B118" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>73</v>
+      </c>
+      <c r="B120" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>74</v>
+      </c>
+      <c r="B121" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>75</v>
+      </c>
+      <c r="B123" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>76</v>
+      </c>
+      <c r="B124" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>77</v>
+      </c>
+      <c r="B126" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>78</v>
+      </c>
+      <c r="B127" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>79</v>
+      </c>
+      <c r="B128" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>80</v>
+      </c>
+      <c r="B129" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>81</v>
+      </c>
+      <c r="B130" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>82</v>
+      </c>
+      <c r="B131" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>83</v>
+      </c>
+      <c r="B135" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>84</v>
+      </c>
+      <c r="B136" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>84</v>
+      </c>
+      <c r="B137" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>85</v>
+      </c>
+      <c r="B139" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>86</v>
+      </c>
+      <c r="B140" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>87</v>
+      </c>
+      <c r="B141" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>36</v>
+      </c>
+      <c r="B143" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>37</v>
+      </c>
+      <c r="B144" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>38</v>
+      </c>
+      <c r="B145" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>88</v>
+      </c>
+      <c r="B146" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>89</v>
+      </c>
+      <c r="B147" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>41</v>
+      </c>
+      <c r="B148" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>90</v>
+      </c>
+      <c r="B152" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>91</v>
+      </c>
+      <c r="B153" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>91</v>
+      </c>
+      <c r="B154" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>92</v>
+      </c>
+      <c r="B156" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>93</v>
+      </c>
+      <c r="B157" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>94</v>
+      </c>
+      <c r="B158" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>95</v>
+      </c>
+      <c r="B160" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>96</v>
+      </c>
+      <c r="B161" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>49</v>
+      </c>
+      <c r="B162" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>97</v>
+      </c>
+      <c r="B163" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>98</v>
+      </c>
+      <c r="B164" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>99</v>
+      </c>
+      <c r="B165" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>100</v>
+      </c>
+      <c r="B169" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>101</v>
+      </c>
+      <c r="B170" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>101</v>
+      </c>
+      <c r="B171" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>14</v>
+      </c>
+      <c r="B172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>102</v>
+      </c>
+      <c r="B173" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>103</v>
+      </c>
+      <c r="B174" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>104</v>
+      </c>
+      <c r="B175" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>2</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>105</v>
+      </c>
+      <c r="B177" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>106</v>
+      </c>
+      <c r="B178" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>79</v>
+      </c>
+      <c r="B179" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>107</v>
+      </c>
+      <c r="B180" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>108</v>
+      </c>
+      <c r="B181" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>41</v>
+      </c>
+      <c r="B182" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>9</v>
+      </c>
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>11</v>
+      </c>
+      <c r="B185" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>109</v>
+      </c>
+      <c r="B186" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>110</v>
+      </c>
+      <c r="B187" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>110</v>
+      </c>
+      <c r="B188" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>14</v>
+      </c>
+      <c r="B189" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>111</v>
+      </c>
+      <c r="B190" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>112</v>
+      </c>
+      <c r="B191" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>113</v>
+      </c>
+      <c r="B192" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>2</v>
+      </c>
+      <c r="B193" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>114</v>
+      </c>
+      <c r="B194" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>115</v>
+      </c>
+      <c r="B195" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>49</v>
+      </c>
+      <c r="B196" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>116</v>
+      </c>
+      <c r="B197" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>117</v>
+      </c>
+      <c r="B198" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>118</v>
+      </c>
+      <c r="B199" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>11</v>
+      </c>
+      <c r="B202" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>119</v>
+      </c>
+      <c r="B203" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>120</v>
+      </c>
+      <c r="B204" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>120</v>
+      </c>
+      <c r="B205" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>14</v>
+      </c>
+      <c r="B206" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>121</v>
+      </c>
+      <c r="B207" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>122</v>
+      </c>
+      <c r="B208" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>123</v>
+      </c>
+      <c r="B209" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>2</v>
+      </c>
+      <c r="B210" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>124</v>
+      </c>
+      <c r="B211" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>125</v>
+      </c>
+      <c r="B212" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>126</v>
+      </c>
+      <c r="B214" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>127</v>
+      </c>
+      <c r="B215" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>128</v>
+      </c>
+      <c r="B216" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>9</v>
+      </c>
+      <c r="B217" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>10</v>
+      </c>
+      <c r="B218" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>11</v>
+      </c>
+      <c r="B219" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>129</v>
+      </c>
+      <c r="B220" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>130</v>
+      </c>
+      <c r="B221" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>130</v>
+      </c>
+      <c r="B222" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>14</v>
+      </c>
+      <c r="B223" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>131</v>
+      </c>
+      <c r="B224" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>132</v>
+      </c>
+      <c r="B225" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>133</v>
+      </c>
+      <c r="B226" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>2</v>
+      </c>
+      <c r="B227" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>36</v>
+      </c>
+      <c r="B228" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>37</v>
+      </c>
+      <c r="B229" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>38</v>
+      </c>
+      <c r="B230" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>134</v>
+      </c>
+      <c r="B231" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>135</v>
+      </c>
+      <c r="B232" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>136</v>
+      </c>
+      <c r="B233" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>10</v>
+      </c>
+      <c r="B235" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>11</v>
+      </c>
+      <c r="B236" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>137</v>
+      </c>
+      <c r="B237" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>138</v>
+      </c>
+      <c r="B238" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>138</v>
+      </c>
+      <c r="B239" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>14</v>
+      </c>
+      <c r="B240" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>139</v>
+      </c>
+      <c r="B241" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>140</v>
+      </c>
+      <c r="B242" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>141</v>
+      </c>
+      <c r="B243" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>2</v>
+      </c>
+      <c r="B244" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>142</v>
+      </c>
+      <c r="B245" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>143</v>
+      </c>
+      <c r="B246" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>5</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>144</v>
+      </c>
+      <c r="B248" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>145</v>
+      </c>
+      <c r="B249" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>136</v>
+      </c>
+      <c r="B250" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>9</v>
+      </c>
+      <c r="B251" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>10</v>
+      </c>
+      <c r="B252" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>11</v>
+      </c>
+      <c r="B253" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>146</v>
+      </c>
+      <c r="B254" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>147</v>
+      </c>
+      <c r="B255" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>147</v>
+      </c>
+      <c r="B256" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>14</v>
+      </c>
+      <c r="B257" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>148</v>
+      </c>
+      <c r="B258" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>149</v>
+      </c>
+      <c r="B259" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>150</v>
+      </c>
+      <c r="B261" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>151</v>
+      </c>
+      <c r="B262" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>2</v>
+      </c>
+      <c r="B263" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>152</v>
+      </c>
+      <c r="B264" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>153</v>
+      </c>
+      <c r="B265" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>154</v>
+      </c>
+      <c r="B266" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>154</v>
+      </c>
+      <c r="B267" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>155</v>
+      </c>
+      <c r="B268" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>41</v>
+      </c>
+      <c r="B269" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>9</v>
+      </c>
+      <c r="B270" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>10</v>
+      </c>
+      <c r="B271" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>11</v>
+      </c>
+      <c r="B272" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>156</v>
+      </c>
+      <c r="B273" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>157</v>
+      </c>
+      <c r="B274" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>157</v>
+      </c>
+      <c r="B275" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>14</v>
+      </c>
+      <c r="B276" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>158</v>
+      </c>
+      <c r="B277" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>159</v>
+      </c>
+      <c r="B278" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>160</v>
+      </c>
+      <c r="B279" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>2</v>
+      </c>
+      <c r="B280" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>152</v>
+      </c>
+      <c r="B281" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>153</v>
+      </c>
+      <c r="B282" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>154</v>
+      </c>
+      <c r="B283" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>154</v>
+      </c>
+      <c r="B284" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>161</v>
+      </c>
+      <c r="B285" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>41</v>
+      </c>
+      <c r="B286" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>9</v>
+      </c>
+      <c r="B287" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>10</v>
+      </c>
+      <c r="B288" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>11</v>
+      </c>
+      <c r="B289" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>162</v>
+      </c>
+      <c r="B290" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>163</v>
+      </c>
+      <c r="B291" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>163</v>
+      </c>
+      <c r="B292" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>14</v>
+      </c>
+      <c r="B293" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>164</v>
+      </c>
+      <c r="B294" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>159</v>
+      </c>
+      <c r="B295" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>165</v>
+      </c>
+      <c r="B296" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>2</v>
+      </c>
+      <c r="B297" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>152</v>
+      </c>
+      <c r="B298" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>153</v>
+      </c>
+      <c r="B299" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>154</v>
+      </c>
+      <c r="B300" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>154</v>
+      </c>
+      <c r="B301" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>161</v>
+      </c>
+      <c r="B302" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>41</v>
+      </c>
+      <c r="B303" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>9</v>
+      </c>
+      <c r="B304" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>10</v>
+      </c>
+      <c r="B305" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>11</v>
+      </c>
+      <c r="B306" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>166</v>
+      </c>
+      <c r="B307" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>163</v>
+      </c>
+      <c r="B308" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>163</v>
+      </c>
+      <c r="B309" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>14</v>
+      </c>
+      <c r="B310" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>167</v>
+      </c>
+      <c r="B311" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>159</v>
+      </c>
+      <c r="B312" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>168</v>
+      </c>
+      <c r="B313" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>2</v>
+      </c>
+      <c r="B314" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>152</v>
+      </c>
+      <c r="B315" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>153</v>
+      </c>
+      <c r="B316" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>154</v>
+      </c>
+      <c r="B317" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>154</v>
+      </c>
+      <c r="B318" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>169</v>
+      </c>
+      <c r="B319" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>41</v>
+      </c>
+      <c r="B320" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>9</v>
+      </c>
+      <c r="B321" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>10</v>
+      </c>
+      <c r="B322" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>11</v>
+      </c>
+      <c r="B323" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>170</v>
+      </c>
+      <c r="B324" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>171</v>
+      </c>
+      <c r="B325" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>171</v>
+      </c>
+      <c r="B326" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>14</v>
+      </c>
+      <c r="B327" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>172</v>
+      </c>
+      <c r="B328" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>159</v>
+      </c>
+      <c r="B329" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>173</v>
+      </c>
+      <c r="B330" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>2</v>
+      </c>
+      <c r="B331" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>174</v>
+      </c>
+      <c r="B332" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>175</v>
+      </c>
+      <c r="B333" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>176</v>
+      </c>
+      <c r="B336" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>41</v>
+      </c>
+      <c r="B337" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>9</v>
+      </c>
+      <c r="B338" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>10</v>
+      </c>
+      <c r="B339" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>11</v>
+      </c>
+      <c r="B340" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>177</v>
+      </c>
+      <c r="B341" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>176</v>
+      </c>
+      <c r="B342" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>176</v>
+      </c>
+      <c r="B343" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>14</v>
+      </c>
+      <c r="B344" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>178</v>
+      </c>
+      <c r="B345" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>159</v>
+      </c>
+      <c r="B346" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>179</v>
+      </c>
+      <c r="B347" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>2</v>
+      </c>
+      <c r="B348" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>152</v>
+      </c>
+      <c r="B349" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>153</v>
+      </c>
+      <c r="B350" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>154</v>
+      </c>
+      <c r="B351" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>154</v>
+      </c>
+      <c r="B352" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>161</v>
+      </c>
+      <c r="B353" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>41</v>
+      </c>
+      <c r="B354" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>9</v>
+      </c>
+      <c r="B355" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>10</v>
+      </c>
+      <c r="B356" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>11</v>
+      </c>
+      <c r="B357" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
+        <v>180</v>
+      </c>
+      <c r="B358" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
+        <v>163</v>
+      </c>
+      <c r="B359" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>163</v>
+      </c>
+      <c r="B360" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>14</v>
+      </c>
+      <c r="B361" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>181</v>
+      </c>
+      <c r="B362" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>159</v>
+      </c>
+      <c r="B363" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
+        <v>182</v>
+      </c>
+      <c r="B365" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>183</v>
+      </c>
+      <c r="B366" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>2</v>
+      </c>
+      <c r="B367" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
+        <v>152</v>
+      </c>
+      <c r="B368" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
+        <v>153</v>
+      </c>
+      <c r="B369" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
+        <v>154</v>
+      </c>
+      <c r="B370" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
+        <v>154</v>
+      </c>
+      <c r="B371" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
+        <v>184</v>
+      </c>
+      <c r="B372" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
+        <v>185</v>
+      </c>
+      <c r="B373" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
+        <v>9</v>
+      </c>
+      <c r="B374" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>10</v>
+      </c>
+      <c r="B375" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>11</v>
+      </c>
+      <c r="B376" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>186</v>
+      </c>
+      <c r="B377" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
+        <v>187</v>
+      </c>
+      <c r="B378" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>187</v>
+      </c>
+      <c r="B379" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
+        <v>14</v>
+      </c>
+      <c r="B380" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
+        <v>188</v>
+      </c>
+      <c r="B381" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
+        <v>189</v>
+      </c>
+      <c r="B382" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
+        <v>190</v>
+      </c>
+      <c r="B383" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
+        <v>2</v>
+      </c>
+      <c r="B384" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
+        <v>152</v>
+      </c>
+      <c r="B385" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
+        <v>153</v>
+      </c>
+      <c r="B386" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
+        <v>154</v>
+      </c>
+      <c r="B387" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
+        <v>154</v>
+      </c>
+      <c r="B388" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" t="s">
+        <v>191</v>
+      </c>
+      <c r="B389" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
+        <v>185</v>
+      </c>
+      <c r="B390" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
+        <v>9</v>
+      </c>
+      <c r="B391" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
+        <v>10</v>
+      </c>
+      <c r="B392" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
+        <v>11</v>
+      </c>
+      <c r="B393" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
+        <v>192</v>
+      </c>
+      <c r="B394" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
+        <v>193</v>
+      </c>
+      <c r="B395" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
+        <v>193</v>
+      </c>
+      <c r="B396" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" t="s">
+        <v>14</v>
+      </c>
+      <c r="B397" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" t="s">
+        <v>194</v>
+      </c>
+      <c r="B398" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
+        <v>195</v>
+      </c>
+      <c r="B399" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" t="s">
+        <v>196</v>
+      </c>
+      <c r="B400" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" t="s">
+        <v>2</v>
+      </c>
+      <c r="B401" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
+        <v>152</v>
+      </c>
+      <c r="B402" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
+        <v>153</v>
+      </c>
+      <c r="B403" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" t="s">
+        <v>154</v>
+      </c>
+      <c r="B404" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
+        <v>154</v>
+      </c>
+      <c r="B405" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" t="s">
+        <v>197</v>
+      </c>
+      <c r="B406" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" t="s">
+        <v>185</v>
+      </c>
+      <c r="B407" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" t="s">
+        <v>9</v>
+      </c>
+      <c r="B408" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" t="s">
+        <v>10</v>
+      </c>
+      <c r="B409" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" t="s">
+        <v>11</v>
+      </c>
+      <c r="B410" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" t="s">
+        <v>198</v>
+      </c>
+      <c r="B411" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" t="s">
+        <v>199</v>
+      </c>
+      <c r="B412" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" t="s">
+        <v>199</v>
+      </c>
+      <c r="B413" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" t="s">
+        <v>14</v>
+      </c>
+      <c r="B414" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" t="s">
+        <v>200</v>
+      </c>
+      <c r="B415" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" t="s">
+        <v>195</v>
+      </c>
+      <c r="B416" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" t="s">
+        <v>201</v>
+      </c>
+      <c r="B417" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" t="s">
+        <v>2</v>
+      </c>
+      <c r="B418" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" t="s">
+        <v>152</v>
+      </c>
+      <c r="B419" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" t="s">
+        <v>153</v>
+      </c>
+      <c r="B420" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" t="s">
+        <v>154</v>
+      </c>
+      <c r="B421" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" t="s">
+        <v>154</v>
+      </c>
+      <c r="B422" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" t="s">
+        <v>202</v>
+      </c>
+      <c r="B423" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" t="s">
+        <v>185</v>
+      </c>
+      <c r="B424" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" t="s">
+        <v>9</v>
+      </c>
+      <c r="B425" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" t="s">
+        <v>10</v>
+      </c>
+      <c r="B426" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" t="s">
+        <v>11</v>
+      </c>
+      <c r="B427" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" t="s">
+        <v>203</v>
+      </c>
+      <c r="B428" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" t="s">
+        <v>204</v>
+      </c>
+      <c r="B429" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" t="s">
+        <v>204</v>
+      </c>
+      <c r="B430" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" t="s">
+        <v>14</v>
+      </c>
+      <c r="B431" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" t="s">
+        <v>205</v>
+      </c>
+      <c r="B432" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" t="s">
+        <v>195</v>
+      </c>
+      <c r="B433" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" t="s">
+        <v>206</v>
+      </c>
+      <c r="B436" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" t="s">
+        <v>207</v>
+      </c>
+      <c r="B437" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" t="s">
+        <v>2</v>
+      </c>
+      <c r="B438" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" t="s">
+        <v>208</v>
+      </c>
+      <c r="B439" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" t="s">
+        <v>209</v>
+      </c>
+      <c r="B440" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" t="s">
+        <v>210</v>
+      </c>
+      <c r="B441" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" t="s">
+        <v>211</v>
+      </c>
+      <c r="B442" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" t="s">
+        <v>212</v>
+      </c>
+      <c r="B443" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" t="s">
+        <v>128</v>
+      </c>
+      <c r="B444" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" t="s">
+        <v>9</v>
+      </c>
+      <c r="B445" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" t="s">
+        <v>10</v>
+      </c>
+      <c r="B446" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" t="s">
+        <v>11</v>
+      </c>
+      <c r="B447" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" t="s">
+        <v>213</v>
+      </c>
+      <c r="B448" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" t="s">
+        <v>214</v>
+      </c>
+      <c r="B449" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" t="s">
+        <v>214</v>
+      </c>
+      <c r="B450" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" t="s">
+        <v>14</v>
+      </c>
+      <c r="B451" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" t="s">
+        <v>215</v>
+      </c>
+      <c r="B452" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" t="s">
+        <v>216</v>
+      </c>
+      <c r="B453" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" t="s">
+        <v>217</v>
+      </c>
+      <c r="B454" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" t="s">
+        <v>2</v>
+      </c>
+      <c r="B455" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" t="s">
+        <v>218</v>
+      </c>
+      <c r="B456" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" t="s">
+        <v>219</v>
+      </c>
+      <c r="B457" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" t="s">
+        <v>220</v>
+      </c>
+      <c r="B458" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" t="s">
+        <v>221</v>
+      </c>
+      <c r="B459" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" t="s">
+        <v>222</v>
+      </c>
+      <c r="B460" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" t="s">
+        <v>128</v>
+      </c>
+      <c r="B461" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" t="s">
+        <v>9</v>
+      </c>
+      <c r="B462" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" t="s">
+        <v>10</v>
+      </c>
+      <c r="B463" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" t="s">
+        <v>11</v>
+      </c>
+      <c r="B464" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" t="s">
+        <v>223</v>
+      </c>
+      <c r="B465" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" t="s">
+        <v>224</v>
+      </c>
+      <c r="B466" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" t="s">
+        <v>224</v>
+      </c>
+      <c r="B467" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" t="s">
+        <v>14</v>
+      </c>
+      <c r="B468" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" t="s">
+        <v>225</v>
+      </c>
+      <c r="B469" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" t="s">
+        <v>226</v>
+      </c>
+      <c r="B470" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" t="s">
+        <v>227</v>
+      </c>
+      <c r="B471" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" t="s">
+        <v>2</v>
+      </c>
+      <c r="B472" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" t="s">
+        <v>218</v>
+      </c>
+      <c r="B473" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" t="s">
+        <v>219</v>
+      </c>
+      <c r="B474" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" t="s">
+        <v>220</v>
+      </c>
+      <c r="B475" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" t="s">
+        <v>228</v>
+      </c>
+      <c r="B476" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" t="s">
+        <v>229</v>
+      </c>
+      <c r="B477" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" t="s">
+        <v>128</v>
+      </c>
+      <c r="B478" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" t="s">
+        <v>9</v>
+      </c>
+      <c r="B479" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" t="s">
+        <v>10</v>
+      </c>
+      <c r="B480" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" t="s">
+        <v>11</v>
+      </c>
+      <c r="B481" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" t="s">
+        <v>230</v>
+      </c>
+      <c r="B482" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" t="s">
+        <v>231</v>
+      </c>
+      <c r="B483" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" t="s">
+        <v>231</v>
+      </c>
+      <c r="B484" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" t="s">
+        <v>14</v>
+      </c>
+      <c r="B485" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" t="s">
+        <v>232</v>
+      </c>
+      <c r="B486" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" t="s">
+        <v>226</v>
+      </c>
+      <c r="B487" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" t="s">
+        <v>233</v>
+      </c>
+      <c r="B488" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" t="s">
+        <v>2</v>
+      </c>
+      <c r="B489" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" t="s">
+        <v>208</v>
+      </c>
+      <c r="B490" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" t="s">
+        <v>209</v>
+      </c>
+      <c r="B491" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" t="s">
+        <v>210</v>
+      </c>
+      <c r="B492" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" t="s">
+        <v>234</v>
+      </c>
+      <c r="B493" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" t="s">
+        <v>235</v>
+      </c>
+      <c r="B494" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" t="s">
+        <v>128</v>
+      </c>
+      <c r="B495" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" t="s">
+        <v>9</v>
+      </c>
+      <c r="B496" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" t="s">
+        <v>10</v>
+      </c>
+      <c r="B497" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" t="s">
+        <v>11</v>
+      </c>
+      <c r="B498" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" t="s">
+        <v>236</v>
+      </c>
+      <c r="B499" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" t="s">
+        <v>237</v>
+      </c>
+      <c r="B500" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" t="s">
+        <v>237</v>
+      </c>
+      <c r="B501" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" t="s">
+        <v>14</v>
+      </c>
+      <c r="B502" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" t="s">
+        <v>238</v>
+      </c>
+      <c r="B503" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" t="s">
+        <v>239</v>
+      </c>
+      <c r="B504" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" t="s">
+        <v>240</v>
+      </c>
+      <c r="B505" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" t="s">
+        <v>2</v>
+      </c>
+      <c r="B506" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" t="s">
+        <v>208</v>
+      </c>
+      <c r="B507" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" t="s">
+        <v>209</v>
+      </c>
+      <c r="B508" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" t="s">
+        <v>210</v>
+      </c>
+      <c r="B509" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" t="s">
+        <v>241</v>
+      </c>
+      <c r="B510" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" t="s">
+        <v>242</v>
+      </c>
+      <c r="B511" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" t="s">
+        <v>128</v>
+      </c>
+      <c r="B512" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" t="s">
+        <v>9</v>
+      </c>
+      <c r="B513" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" t="s">
+        <v>10</v>
+      </c>
+      <c r="B514" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" t="s">
+        <v>11</v>
+      </c>
+      <c r="B515" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" t="s">
+        <v>243</v>
+      </c>
+      <c r="B516" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" t="s">
+        <v>244</v>
+      </c>
+      <c r="B517" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" t="s">
+        <v>244</v>
+      </c>
+      <c r="B518" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" t="s">
+        <v>14</v>
+      </c>
+      <c r="B519" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" t="s">
+        <v>245</v>
+      </c>
+      <c r="B520" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" t="s">
+        <v>239</v>
+      </c>
+      <c r="B521" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" t="s">
+        <v>246</v>
+      </c>
+      <c r="B529">
+        <f>SUM(B1:B7)</f>
         <v>0</v>
       </c>
     </row>
